--- a/ToDo.xlsx
+++ b/ToDo.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Note" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$C$4:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ToDoList!$B$4:$B$4</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Status</t>
     <phoneticPr fontId="2"/>
@@ -39,47 +39,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>AAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Label</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Me</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CCC</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -145,12 +105,86 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Not Ready</t>
+  </si>
+  <si>
+    <t>yyyy/mm/dd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hogehogehoge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Me</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>fugafuga</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hogehogehoge
+hogehoge</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Me</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HOGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CCC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yyyy/mm/dd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HOGEHOGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DDD</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +205,20 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -193,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -227,19 +275,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -283,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -294,7 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -303,15 +338,325 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -831,217 +1176,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:G20"/>
+  <dimension ref="B3:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="49.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="36.77734375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C4:E4"/>
+  <autoFilter ref="B4"/>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C7:C20 E7:G20">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D11">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$C7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$C12="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D20">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C14="Done"</formula>
+  <conditionalFormatting sqref="C5:D5">
+    <cfRule type="expression" dxfId="38" priority="21">
+      <formula>$B5="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5 G5">
+    <cfRule type="expression" dxfId="36" priority="22">
+      <formula>$B5="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="35" priority="18">
+      <formula>$B5="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="34" priority="17">
+      <formula>$B5="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D9 D6:D7">
+    <cfRule type="expression" dxfId="31" priority="13">
+      <formula>$B6="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B9 G6:G9">
+    <cfRule type="expression" dxfId="29" priority="14">
+      <formula>$B6="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E9">
+    <cfRule type="expression" dxfId="27" priority="12">
+      <formula>$B6="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F9">
+    <cfRule type="expression" dxfId="25" priority="11">
+      <formula>$B6="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="23" priority="10">
+      <formula>$B6="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="21" priority="9">
+      <formula>$B7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:D21">
+    <cfRule type="expression" dxfId="19" priority="7">
+      <formula>$B10="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B21 G10:G21">
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>$B10="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E21">
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>$B10="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F21">
+    <cfRule type="expression" dxfId="13" priority="5">
+      <formula>$B10="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D27">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$B22="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B27 G22:G27">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$B22="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E27">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$B22="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F27">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$B22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B27">
       <formula1>"Ready, Not Ready, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1055,51 +1555,51 @@
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="8"/>
-    <col min="3" max="3" width="11.21875" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="2" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="11.21875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="8" t="s">
-        <v>16</v>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
